--- a/配餐服务点评系统-任务单（V1.0）.xlsx
+++ b/配餐服务点评系统-任务单（V1.0）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,106 +223,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>菜品点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看菜品点赞结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定对应菜品列表；长时间无操作自动跳转至成果展示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现统计图表展示；长时间无操作自动跳转至成果展示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要投诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定投诉意见列表，实现数据提交；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工服务评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合页面静态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据提供的静态页，完成各功能页面整合；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试与验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布上线与维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测与验收测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先自测，自测完毕之后，交换测试；并最终提交验收测试；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布上线与维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布至正式环境，并跟进反馈问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱燕军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱燕军、宋超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点评主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时显示日期、绑定静态页添加对应请求链接；长时间无操作自动跳转至成果展示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成员工列表绑定，实现数据提交；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时显示日期；该页面为几张大图轮换展示，当任意一张大图点击时，都进入点评主页；由于该触摸屏可能长时间无人操作，需要支持定时刷新；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成果展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点评主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时显示日期；该页面为几张大图轮换展示，当任意一张大图点击时，都进入点评主页；由于该触摸屏可能长时间无人操作，需要支持定时刷新；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品点赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时显示日期、绑定静态页添加对应请求链接；长时间无操作自动跳转至成果展示；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看菜品点赞结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定对应菜品列表；长时间无操作自动跳转至成果展示；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现统计图表展示；长时间无操作自动跳转至成果展示；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要投诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定投诉意见列表，实现数据提交；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工服务评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成员工列表绑定，实现数据提交；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态页整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合页面静态页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依据提供的静态页，完成各功能页面整合；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试与验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布上线与维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自测与验收测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先自测，自测完毕之后，交换测试；并最终提交验收测试；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布上线与维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布至正式环境，并跟进反馈问题；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱燕军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱燕军、宋超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,25 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +449,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,22 +774,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="62.375" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,11 +815,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -835,13 +835,13 @@
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -855,13 +855,13 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -874,90 +874,98 @@
         <v>22</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -965,113 +973,115 @@
         <v>20</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.5</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <v>0.5</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <v>0.5</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5">
         <v>0.5</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1089,13 +1099,13 @@
       <c r="G17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1108,16 +1118,16 @@
       <c r="F18" s="5">
         <v>0.5</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>73</v>
+      <c r="G18" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1128,14 +1138,14 @@
       <c r="F19" s="5">
         <v>0.5</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1146,14 +1156,14 @@
       <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1164,14 +1174,14 @@
       <c r="F21" s="5">
         <v>0.5</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1181,177 +1191,186 @@
         <v>51</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="6" t="s">
-        <v>74</v>
+      <c r="F22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="14"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
+      <c r="F28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5">
         <v>2</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>75</v>
+      <c r="G29" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5">
         <v>2</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>72</v>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="G29:G31"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -1359,6 +1378,11 @@
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="G29:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配餐服务点评系统-任务单（V1.0）.xlsx
+++ b/配餐服务点评系统-任务单（V1.0）.xlsx
@@ -453,10 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -877,13 +877,13 @@
       <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
@@ -901,71 +901,71 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
         <v>0.5</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
         <v>0.5</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>0.5</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1005,11 +1005,11 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.5</v>
@@ -1021,11 +1021,11 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <v>0.5</v>
@@ -1037,11 +1037,11 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
         <v>0.5</v>
@@ -1053,11 +1053,11 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <v>0.5</v>
@@ -1069,11 +1069,11 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5">
         <v>0.5</v>
@@ -1127,7 +1127,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1371,6 +1371,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="G29:G31"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -1378,11 +1383,6 @@
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="G29:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配餐服务点评系统-任务单（V1.0）.xlsx
+++ b/配餐服务点评系统-任务单（V1.0）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,10 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,21 +775,21 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G11" sqref="G11:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -837,11 +837,11 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -879,11 +879,11 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
@@ -897,75 +897,75 @@
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0.5</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>0.5</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>0.5</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -973,13 +973,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1001,15 +1001,15 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.5</v>
@@ -1017,15 +1017,15 @@
       <c r="G12" s="14"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <v>0.5</v>
@@ -1033,15 +1033,15 @@
       <c r="G13" s="14"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
         <v>0.5</v>
@@ -1049,15 +1049,15 @@
       <c r="G14" s="14"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <v>0.5</v>
@@ -1065,15 +1065,15 @@
       <c r="G15" s="14"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5">
         <v>0.5</v>
@@ -1081,7 +1081,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1123,11 +1123,11 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1141,11 +1141,11 @@
       <c r="G19" s="14"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1159,11 +1159,11 @@
       <c r="G20" s="14"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>0.5</v>
       </c>
       <c r="G22" s="13" t="s">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1211,17 +1211,17 @@
         <v>74</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>0.5</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
@@ -1229,17 +1229,17 @@
         <v>72</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>0.5</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
@@ -1247,17 +1247,17 @@
         <v>54</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0.5</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1265,17 +1265,17 @@
         <v>55</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>0.5</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
@@ -1283,17 +1283,17 @@
         <v>57</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>0.5</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1301,13 +1301,13 @@
         <v>73</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>0.5</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1371,11 +1371,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="G29:G31"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -1383,6 +1378,11 @@
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="G29:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配餐服务点评系统-任务单（V1.0）.xlsx
+++ b/配餐服务点评系统-任务单（V1.0）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>成果展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出Execl功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照页面显示结果导出相应Execl文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,13 +458,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -772,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,7 +830,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -861,7 +872,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -874,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="6"/>
@@ -883,73 +894,73 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5">
         <v>0.5</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <v>0.5</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
@@ -958,7 +969,7 @@
       <c r="F9" s="5">
         <v>0.5</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -976,100 +987,100 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.5</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <v>0.5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <v>0.5</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1079,226 +1090,224 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5">
         <v>0.5</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>49</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5">
         <v>0.5</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5">
         <v>0.5</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5">
         <v>0.5</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
         <v>0.5</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5">
         <v>0.5</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5">
         <v>0.5</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5">
@@ -1309,80 +1318,98 @@
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="16"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5">
         <v>2</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5">
+      <c r="E32" s="3"/>
+      <c r="F32" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="2"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G30:G32"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="G4:G10"/>
-    <mergeCell ref="G11:G16"/>
     <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="G11:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配餐服务点评系统-任务单（V1.0）.xlsx
+++ b/配餐服务点评系统-任务单（V1.0）.xlsx
@@ -464,10 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,7 +852,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
@@ -912,11 +912,11 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
         <v>1</v>
@@ -928,11 +928,11 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5">
         <v>0.5</v>
@@ -944,11 +944,11 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <v>0.5</v>
@@ -960,11 +960,11 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5">
         <v>0.5</v>
@@ -976,7 +976,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.5</v>
@@ -1036,7 +1036,7 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <v>0.5</v>
@@ -1052,7 +1052,7 @@
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
         <v>0.5</v>
@@ -1068,7 +1068,7 @@
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <v>0.5</v>
@@ -1084,7 +1084,7 @@
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
@@ -1154,7 +1154,7 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
@@ -1398,11 +1398,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G30:G32"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="D11:D16"/>
@@ -1410,6 +1405,11 @@
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="G11:G17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G30:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
